--- a/pr EXPORT (1).xlsx
+++ b/pr EXPORT (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W78159\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A56C8F5-1234-4D80-80DF-870693F16EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB1C393-0CE7-4D85-A8E0-C3BC54D74715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
